--- a/Phase 4/Records.xlsx
+++ b/Phase 4/Records.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ripti\Documents\GitHub\Team Projects\MEEN-357-Project\Phase 4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A43B810-5A1A-4CB4-8774-37D04F797894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t># of Battery</t>
   </si>
@@ -47,18 +53,6 @@
   </si>
   <si>
     <t>Parachute diam</t>
-  </si>
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1.1</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1.1.1</t>
   </si>
   <si>
     <t>Wheel Radius</t>
@@ -109,8 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +167,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -219,7 +221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,9 +253,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,6 +305,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -460,14 +498,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,20 +544,8 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -525,16 +553,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>700</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>290</v>
@@ -543,69 +571,45 @@
         <v>0.12</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L2">
         <v>19</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -613,25 +617,25 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>550.0015547632737</v>
       </c>
       <c r="F4">
-        <v>6095981.071365601</v>
+        <v>6095981.0713656014</v>
       </c>
       <c r="G4">
         <v>249.9994655549381</v>
       </c>
       <c r="H4">
-        <v>0.05374364718255484</v>
+        <v>5.3743647182554838E-2</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -640,22 +644,13 @@
         <v>1303.7622794361</v>
       </c>
       <c r="L4">
-        <v>16.98483096689939</v>
+        <v>16.984830966899391</v>
       </c>
       <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0.4999963078525279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.49999630785252791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -663,25 +658,25 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>550.0015547632737</v>
       </c>
       <c r="F5">
-        <v>6095981.071365601</v>
+        <v>6095981.0713656014</v>
       </c>
       <c r="G5">
         <v>249.9994655549381</v>
       </c>
       <c r="H5">
-        <v>0.05374364718255484</v>
+        <v>5.3743647182554838E-2</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -690,19 +685,13 @@
         <v>1303.7622794361</v>
       </c>
       <c r="L5">
-        <v>16.98483096689939</v>
+        <v>16.984830966899391</v>
       </c>
       <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0.4999963078525279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.49999630785252791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -710,25 +699,25 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>550.0015547632737</v>
       </c>
       <c r="F6">
-        <v>6095981.071365601</v>
+        <v>6095981.0713656014</v>
       </c>
       <c r="G6">
         <v>249.9994655549381</v>
       </c>
       <c r="H6">
-        <v>0.05374364718255484</v>
+        <v>5.3743647182554838E-2</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -737,42 +726,39 @@
         <v>1303.7622794361</v>
       </c>
       <c r="L6">
-        <v>16.98483096689939</v>
+        <v>16.984830966899391</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0.4999963078525279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.49999630785252791</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>550.004319166729</v>
+        <v>550.00431916672903</v>
       </c>
       <c r="F7">
         <v>5610723.335637778</v>
       </c>
       <c r="G7">
-        <v>249.9954479677056</v>
+        <v>249.99544796770559</v>
       </c>
       <c r="H7">
-        <v>0.06124303924955016</v>
+        <v>6.1243039249550157E-2</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -781,10 +767,297 @@
         <v>1620.167385263451</v>
       </c>
       <c r="L7">
-        <v>17.41474590542178</v>
-      </c>
-      <c r="Q7">
-        <v>0.5000000748122092</v>
+        <v>17.414745905421778</v>
+      </c>
+      <c r="M7">
+        <v>0.50000007481220921</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>550.00263634341275</v>
+      </c>
+      <c r="F8">
+        <v>6045160.4441170329</v>
+      </c>
+      <c r="G8">
+        <v>249.99912282568519</v>
+      </c>
+      <c r="H8">
+        <v>3.2778602647163937E-2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>893.73067612135651</v>
+      </c>
+      <c r="L8">
+        <v>18.418434442738342</v>
+      </c>
+      <c r="M8">
+        <v>0.49999994948492948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>550.00263634341275</v>
+      </c>
+      <c r="F9">
+        <v>6045160.4441170329</v>
+      </c>
+      <c r="G9">
+        <v>249.99912282568519</v>
+      </c>
+      <c r="H9">
+        <v>3.2778602647163937E-2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>893.73067612135651</v>
+      </c>
+      <c r="L9">
+        <v>18.418434442738342</v>
+      </c>
+      <c r="M9">
+        <v>0.49999994948492948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>550.00263634341275</v>
+      </c>
+      <c r="F10">
+        <v>6045160.4441170329</v>
+      </c>
+      <c r="G10">
+        <v>249.99912282568519</v>
+      </c>
+      <c r="H10">
+        <v>3.2778602647163937E-2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>893.73067612135651</v>
+      </c>
+      <c r="L10">
+        <v>18.418434442738342</v>
+      </c>
+      <c r="M10">
+        <v>0.49999994948492948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>550.00263634341275</v>
+      </c>
+      <c r="F11">
+        <v>6045160.4441170329</v>
+      </c>
+      <c r="G11">
+        <v>249.99912282568519</v>
+      </c>
+      <c r="H11">
+        <v>3.2778602647163937E-2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>893.73067612135651</v>
+      </c>
+      <c r="L11">
+        <v>18.418434442738342</v>
+      </c>
+      <c r="M11">
+        <v>0.49999994948492948</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>550.00263634341275</v>
+      </c>
+      <c r="F12">
+        <v>6045160.4441170329</v>
+      </c>
+      <c r="G12">
+        <v>249.99912282568519</v>
+      </c>
+      <c r="H12">
+        <v>3.2778602647163937E-2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>893.73067612135651</v>
+      </c>
+      <c r="L12">
+        <v>18.418434442738342</v>
+      </c>
+      <c r="M12">
+        <v>0.49999994948492948</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>550.00546374937869</v>
+      </c>
+      <c r="F13">
+        <v>5798928.0779606914</v>
+      </c>
+      <c r="G13">
+        <v>250.038545714496</v>
+      </c>
+      <c r="H13">
+        <v>7.8801728280152986E-2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>3821.9051498616318</v>
+      </c>
+      <c r="L13">
+        <v>18.014004446268039</v>
+      </c>
+      <c r="M13">
+        <v>0.29889523387511913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>549.99972451262522</v>
+      </c>
+      <c r="F14">
+        <v>5810724.4800662221</v>
+      </c>
+      <c r="G14">
+        <v>249.9995071823561</v>
+      </c>
+      <c r="H14">
+        <v>7.4051537560874708E-2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>3242.0252422089379</v>
+      </c>
+      <c r="L14">
+        <v>18.494947520628429</v>
+      </c>
+      <c r="M14">
+        <v>0.32261417586507679</v>
       </c>
     </row>
   </sheetData>
